--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3542</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Timothy Grant Southee</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/06/2008</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>27/06/2008</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -744,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/07/2008</t>
@@ -752,7 +814,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2839</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -792,7 +854,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>03/07/2008</t>
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2843</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -944,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>14/10/2008</t>
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/12/2008</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2908</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1111,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1092,7 +1151,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/01/2009</t>
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1140,7 +1198,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>10/01/2009</t>
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1188,7 +1245,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>13/01/2009</t>
@@ -1196,7 +1252,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2933</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1288,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>06/02/2009</t>
@@ -1296,7 +1351,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2938</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1403,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2939</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2941</t>
+          <t>2941</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1440,7 +1495,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>13/02/2009</t>
@@ -1448,7 +1502,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2942</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2945</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3047</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1646,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>06/11/2009</t>
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1652,7 +1705,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1704,7 +1757,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1744,7 +1797,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>11/02/2010</t>
@@ -1752,7 +1804,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1804,7 +1856,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3096</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1856,7 +1908,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3099</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1908,7 +1960,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3101</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1960,7 +2012,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3103</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2000,7 +2052,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>13/03/2010</t>
@@ -2008,7 +2059,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3105</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2060,7 +2111,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2112,7 +2163,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2164,7 +2215,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2216,7 +2267,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2268,7 +2319,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2308,7 +2359,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>07/12/2010</t>
@@ -2316,7 +2366,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2368,7 +2418,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3212</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2408,7 +2458,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>22/01/2011</t>
@@ -2416,7 +2465,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2456,7 +2505,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -2464,7 +2512,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2516,7 +2564,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2556,7 +2604,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>01/02/2011</t>
@@ -2564,7 +2611,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2604,7 +2651,6 @@
           <t>43</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>05/02/2011</t>
@@ -2612,7 +2658,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2652,7 +2698,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -2660,7 +2705,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3236</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2712,7 +2757,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3242</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2752,7 +2797,6 @@
           <t>46</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -2760,7 +2804,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3252</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2800,7 +2844,6 @@
           <t>47</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>08/03/2011</t>
@@ -2808,7 +2851,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3258</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2848,7 +2891,6 @@
           <t>48</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>13/03/2011</t>
@@ -2856,7 +2898,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3264</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2908,7 +2950,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2948,7 +2990,6 @@
           <t>50</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>25/03/2011</t>
@@ -2956,7 +2997,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3279</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3008,7 +3049,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3281</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3060,7 +3101,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3100,7 +3141,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>06/02/2012</t>
@@ -3108,7 +3148,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3368</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3160,7 +3200,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3212,7 +3252,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3388</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3264,7 +3304,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3316,7 +3356,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3368,7 +3408,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3420,7 +3460,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3472,7 +3512,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3512,7 +3552,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -3520,7 +3559,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3560,7 +3599,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -3568,7 +3606,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3620,7 +3658,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3660,7 +3698,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -3668,7 +3705,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3720,7 +3757,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3772,7 +3809,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3812,7 +3849,6 @@
           <t>67</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>31/05/2013</t>
@@ -3820,7 +3856,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3872,7 +3908,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3924,7 +3960,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3964,7 +4000,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>12/06/2013</t>
@@ -3972,7 +4007,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4024,7 +4059,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4076,7 +4111,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4116,7 +4151,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>04/01/2014</t>
@@ -4124,7 +4158,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4176,7 +4210,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4228,7 +4262,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4268,7 +4302,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>22/01/2014</t>
@@ -4276,7 +4309,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4328,7 +4361,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4368,7 +4401,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -4376,7 +4408,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4428,7 +4460,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4468,7 +4500,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -4476,7 +4507,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4516,7 +4547,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -4524,7 +4554,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3729</t>
+          <t>3729</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4564,7 +4594,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -4572,7 +4601,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4612,7 +4641,6 @@
           <t>83</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -4620,7 +4648,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4672,7 +4700,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4712,7 +4740,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -4720,7 +4747,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4760,7 +4787,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -4768,7 +4794,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4808,7 +4834,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>17/02/2015</t>
@@ -4816,7 +4841,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4856,7 +4881,6 @@
           <t>88</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -4864,7 +4888,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4916,7 +4940,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4956,7 +4980,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -4964,7 +4987,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5016,7 +5039,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5056,7 +5079,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -5064,7 +5086,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5104,7 +5126,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -5112,7 +5133,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5164,7 +5185,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5204,7 +5225,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>12/06/2015</t>
@@ -5212,7 +5232,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5264,7 +5284,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5316,7 +5336,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5368,7 +5388,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5420,7 +5440,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5472,7 +5492,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5524,7 +5544,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5576,7 +5596,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5628,7 +5648,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5680,7 +5700,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5732,7 +5752,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5784,7 +5804,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5836,7 +5856,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5888,7 +5908,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5928,7 +5948,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>31/12/2016</t>
@@ -5936,7 +5955,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5988,7 +6007,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6040,7 +6059,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6092,7 +6111,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6132,7 +6151,6 @@
           <t>113</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -6140,7 +6158,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6192,7 +6210,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6232,7 +6250,6 @@
           <t>115</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -6240,7 +6257,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6292,7 +6309,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6344,7 +6361,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6396,7 +6413,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6448,7 +6465,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6488,7 +6505,6 @@
           <t>120</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -6496,7 +6512,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6548,7 +6564,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6600,7 +6616,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6640,7 +6656,6 @@
           <t>123</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -6648,7 +6663,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6700,7 +6715,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6740,7 +6755,6 @@
           <t>125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -6748,7 +6762,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6800,7 +6814,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6840,7 +6854,6 @@
           <t>127</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -6848,7 +6861,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6900,7 +6913,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6952,7 +6965,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7004,7 +7017,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7056,7 +7069,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7096,7 +7109,6 @@
           <t>132</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -7104,7 +7116,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7156,7 +7168,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7208,7 +7220,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7260,7 +7272,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7312,7 +7324,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7352,7 +7364,6 @@
           <t>137</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -7360,7 +7371,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7412,7 +7423,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7452,7 +7463,6 @@
           <t>139</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -7460,7 +7470,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7512,7 +7522,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7552,7 +7562,6 @@
           <t>141</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -7560,7 +7569,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7612,7 +7621,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7652,7 +7661,6 @@
           <t>143</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -7660,7 +7668,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7712,7 +7720,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7764,7 +7772,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7804,7 +7812,6 @@
           <t>146</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -7812,7 +7819,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7864,7 +7871,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7916,7 +7923,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7956,7 +7963,6 @@
           <t>149</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -7964,7 +7970,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8004,7 +8010,6 @@
           <t>150</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -8012,7 +8017,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8052,7 +8057,6 @@
           <t>151</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -8060,7 +8064,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8112,7 +8116,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8164,7 +8168,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8216,7 +8220,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8255,7 +8259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8277,7 +8281,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8314,7 +8318,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8351,7 +8355,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8388,7 +8392,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8425,7 +8429,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8462,7 +8466,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8499,7 +8503,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2839</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8536,7 +8540,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2843</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8573,7 +8577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2880</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8610,7 +8614,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2881</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8647,7 +8651,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2882</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8684,7 +8688,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2908</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8721,7 +8725,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2909</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -8758,7 +8762,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2910</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -8795,7 +8799,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2911</t>
+          <t>2911</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -8832,7 +8836,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2914</t>
+          <t>2914</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -8869,7 +8873,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2933</t>
+          <t>2933</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -8906,7 +8910,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2938</t>
+          <t>2938</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -8943,7 +8947,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2939</t>
+          <t>2939</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -8980,7 +8984,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2941</t>
+          <t>2941</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9017,7 +9021,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2942</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9054,7 +9058,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2945</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9091,7 +9095,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3047</t>
+          <t>3047</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9128,7 +9132,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3051</t>
+          <t>3051</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9165,7 +9169,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3054</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9202,7 +9206,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3079</t>
+          <t>3079</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9239,7 +9243,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3083</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9276,7 +9280,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3096</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9313,7 +9317,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3099</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9350,7 +9354,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3101</t>
+          <t>3101</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9387,7 +9391,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3103</t>
+          <t>3103</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9424,7 +9428,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3105</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9461,7 +9465,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3162</t>
+          <t>3162</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -9498,7 +9502,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3170</t>
+          <t>3170</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -9535,7 +9539,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3182</t>
+          <t>3182</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9572,7 +9576,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3186</t>
+          <t>3186</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -9609,7 +9613,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3206</t>
+          <t>3206</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -9646,7 +9650,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3210</t>
+          <t>3210</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -9683,7 +9687,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -9720,7 +9724,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -9757,7 +9761,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -9794,7 +9798,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -9831,7 +9835,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -9868,7 +9872,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3236</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9905,7 +9909,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3242</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9942,7 +9946,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3252</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9979,7 +9983,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3258</t>
+          <t>3258</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10016,7 +10020,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3264</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10053,7 +10057,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10090,7 +10094,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3279</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10127,7 +10131,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3281</t>
+          <t>3281</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10164,7 +10168,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3366</t>
+          <t>3366</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10201,7 +10205,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3368</t>
+          <t>3368</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10238,7 +10242,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10275,7 +10279,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3388</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10312,7 +10316,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3422</t>
+          <t>3422</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10349,7 +10353,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3424</t>
+          <t>3424</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10386,7 +10390,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3427</t>
+          <t>3427</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10423,7 +10427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3429</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10460,7 +10464,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3430</t>
+          <t>3430</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10497,7 +10501,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3446</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10534,7 +10538,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3447</t>
+          <t>3447</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -10571,7 +10575,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3448</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -10608,7 +10612,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3449</t>
+          <t>3449</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -10645,7 +10649,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -10682,7 +10686,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -10719,7 +10723,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -10756,7 +10760,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -10793,7 +10797,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3508</t>
+          <t>3508</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10830,7 +10834,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3511</t>
+          <t>3511</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -10867,7 +10871,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3567</t>
+          <t>3567</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -10904,7 +10908,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3570</t>
+          <t>3570</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -10941,7 +10945,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3597</t>
+          <t>3597</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -10978,7 +10982,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3598</t>
+          <t>3598</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -11015,7 +11019,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -11052,7 +11056,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11089,7 +11093,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -11126,7 +11130,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -11163,7 +11167,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -11200,7 +11204,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3687</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -11237,7 +11241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3734</t>
+          <t>3734</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -11274,7 +11278,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3737</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -11311,7 +11315,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3743</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -11348,7 +11352,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3747</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -11385,7 +11389,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3748</t>
+          <t>3748</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -11422,7 +11426,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3753</t>
+          <t>3753</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -11459,7 +11463,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11496,7 +11500,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3767</t>
+          <t>3767</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -11533,7 +11537,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11570,7 +11574,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3784</t>
+          <t>3784</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -11607,7 +11611,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3793</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -11644,7 +11648,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -11681,7 +11685,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3796</t>
+          <t>3796</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -11718,7 +11722,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -11755,7 +11759,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -11792,7 +11796,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11829,7 +11833,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11866,7 +11870,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11903,7 +11907,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -11940,7 +11944,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -11977,7 +11981,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -12014,7 +12018,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12051,7 +12055,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -12088,7 +12092,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3967</t>
+          <t>3967</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -12125,7 +12129,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3968</t>
+          <t>3968</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12162,7 +12166,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3969</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12199,7 +12203,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3970</t>
+          <t>3970</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -12236,7 +12240,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3971</t>
+          <t>3971</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12273,7 +12277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3984</t>
+          <t>3984</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -12310,7 +12314,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3988</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -12347,7 +12351,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -12384,7 +12388,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12421,7 +12425,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12458,7 +12462,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12495,7 +12499,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12532,7 +12536,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4032</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12569,7 +12573,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12606,7 +12610,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4039</t>
+          <t>4039</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12643,7 +12647,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4085</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -12680,7 +12684,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4088</t>
+          <t>4088</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -12717,7 +12721,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4089</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -12754,7 +12758,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4100</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -12791,7 +12795,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4103</t>
+          <t>4103</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -12828,7 +12832,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4104</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -12865,7 +12869,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4105</t>
+          <t>4105</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -12902,7 +12906,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4110</t>
+          <t>4110</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -12939,7 +12943,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4114</t>
+          <t>4114</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -12976,7 +12980,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -13013,7 +13017,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -13050,7 +13054,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -13087,7 +13091,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -13124,7 +13128,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -13161,7 +13165,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4223</t>
+          <t>4223</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -13198,7 +13202,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4225</t>
+          <t>4225</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -13235,7 +13239,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4232</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -13272,7 +13276,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4233</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -13309,7 +13313,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4239</t>
+          <t>4239</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -13346,7 +13350,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4252</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -13383,7 +13387,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -13420,7 +13424,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -13457,7 +13461,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -13494,7 +13498,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -13531,7 +13535,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4636</t>
+          <t>4636</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -13568,7 +13572,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4639</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -13605,7 +13609,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4642</t>
+          <t>4642</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -13642,7 +13646,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4648</t>
+          <t>4648</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -13679,7 +13683,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4649</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -13716,7 +13720,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4669</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -13753,7 +13757,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4673</t>
+          <t>4673</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -13790,7 +13794,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4676</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -13827,7 +13831,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -13864,7 +13868,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -13901,7 +13905,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -13927,6 +13931,479 @@
       <c r="G153" t="inlineStr">
         <is>
           <t>3/56</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.31%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13991,15 +13992,417 @@
           <t>4225</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4232</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4233</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4239</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.73%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4252</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4636</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6.32%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4639</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.89%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4642</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4648</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.44%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4649</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.31%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4669</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4225</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -14007,27 +14410,14 @@
           <t>4232</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -14039,13 +14429,6 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14053,29 +14436,12 @@
           <t>4239</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14083,15 +14449,14 @@
           <t>4252</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -14103,13 +14468,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14119,13 +14477,6 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14135,13 +14486,6 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14149,17 +14493,12 @@
           <t>4410</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14167,27 +14506,14 @@
           <t>4636</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.32%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -14197,27 +14523,14 @@
           <t>4639</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -14229,13 +14542,6 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14243,27 +14549,14 @@
           <t>4648</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -14273,27 +14566,14 @@
           <t>4649</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>9</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -14303,15 +14583,14 @@
           <t>4669</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -14323,13 +14602,6 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14337,15 +14609,14 @@
           <t>4676</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -14357,13 +14628,6 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14371,23 +14635,14 @@
           <t>4688</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -14399,13 +14654,6 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1065,7 +1064,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -2518,7 +2517,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3711,7 +3710,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4513,7 +4512,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8023,7 +8022,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -13992,6 +13991,10 @@
           <t>4225</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14034,6 +14037,10 @@
           <t>4233</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14079,6 +14086,9 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>YES</t>
@@ -14091,6 +14101,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14103,6 +14117,10 @@
           <t>4402</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14115,6 +14133,10 @@
           <t>4406</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14130,6 +14152,9 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14202,6 +14227,10 @@
           <t>4642</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14277,6 +14306,9 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14289,6 +14321,10 @@
           <t>4673</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14304,6 +14340,9 @@
       <c r="B18" t="n">
         <v>10</v>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14316,6 +14355,10 @@
           <t>4686</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14341,6 +14384,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
           <t>NO</t>
@@ -14353,307 +14397,15 @@
           <t>4690</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4239</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>60.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3542.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>18/06/2008</t>
@@ -760,6 +760,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>27/06/2008</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/07/2008</t>
@@ -854,6 +856,7 @@
           <t>7</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>03/07/2008</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>14/10/2008</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>31/12/2008</t>
@@ -1151,6 +1156,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>07/01/2009</t>
@@ -1198,6 +1204,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>10/01/2009</t>
@@ -1245,6 +1252,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>13/01/2009</t>
@@ -1344,6 +1352,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>06/02/2009</t>
@@ -1495,6 +1504,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>13/02/2009</t>
@@ -1646,6 +1656,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>06/11/2009</t>
@@ -1797,6 +1808,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>11/02/2010</t>
@@ -2052,6 +2064,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>13/03/2010</t>
@@ -2359,6 +2372,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>07/12/2010</t>
@@ -2458,6 +2472,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>22/01/2011</t>
@@ -2505,6 +2520,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -2604,6 +2620,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>01/02/2011</t>
@@ -2651,6 +2668,7 @@
           <t>43</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>05/02/2011</t>
@@ -2698,6 +2716,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -2797,6 +2816,7 @@
           <t>46</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -2844,6 +2864,7 @@
           <t>47</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
           <t>08/03/2011</t>
@@ -2891,6 +2912,7 @@
           <t>48</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr">
         <is>
           <t>13/03/2011</t>
@@ -2990,6 +3012,7 @@
           <t>50</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr">
         <is>
           <t>25/03/2011</t>
@@ -3141,6 +3164,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>06/02/2012</t>
@@ -3552,6 +3576,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>04/11/2012</t>
@@ -3599,6 +3624,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>06/11/2012</t>
@@ -3698,6 +3724,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>12/11/2012</t>
@@ -3849,6 +3876,7 @@
           <t>67</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
           <t>31/05/2013</t>
@@ -4000,6 +4028,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>12/06/2013</t>
@@ -4151,6 +4180,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>04/01/2014</t>
@@ -4302,6 +4332,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>22/01/2014</t>
@@ -4401,6 +4432,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -4500,6 +4532,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>27/10/2014</t>
@@ -4547,6 +4580,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>17/01/2015</t>
@@ -4594,6 +4628,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -4641,6 +4676,7 @@
           <t>83</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -4740,6 +4776,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>03/02/2015</t>
@@ -4787,6 +4824,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>14/02/2015</t>
@@ -4834,6 +4872,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>17/02/2015</t>
@@ -4881,6 +4920,7 @@
           <t>88</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
           <t>20/02/2015</t>
@@ -4980,6 +5020,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>08/03/2015</t>
@@ -5079,6 +5120,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>21/03/2015</t>
@@ -5126,6 +5168,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>24/03/2015</t>
@@ -5225,6 +5268,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>12/06/2015</t>
@@ -5948,6 +5992,7 @@
           <t>109</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>31/12/2016</t>
@@ -6151,6 +6196,7 @@
           <t>113</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>22/02/2017</t>
@@ -6250,6 +6296,7 @@
           <t>115</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr">
         <is>
           <t>01/03/2017</t>
@@ -6505,6 +6552,7 @@
           <t>120</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>22/10/2017</t>
@@ -6656,6 +6704,7 @@
           <t>123</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>20/12/2017</t>
@@ -6755,6 +6804,7 @@
           <t>125</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>08/01/2018</t>
@@ -6854,6 +6904,7 @@
           <t>127</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>16/01/2018</t>
@@ -7109,6 +7160,7 @@
           <t>132</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr">
         <is>
           <t>06/03/2018</t>
@@ -7364,6 +7416,7 @@
           <t>137</t>
         </is>
       </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr">
         <is>
           <t>08/01/2019</t>
@@ -7463,6 +7516,7 @@
           <t>139</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>20/02/2019</t>
@@ -7562,6 +7616,7 @@
           <t>141</t>
         </is>
       </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -7661,6 +7716,7 @@
           <t>143</t>
         </is>
       </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -7812,6 +7868,7 @@
           <t>146</t>
         </is>
       </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>21/08/2022</t>
@@ -7963,6 +8020,7 @@
           <t>149</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>25/11/2022</t>
@@ -8010,6 +8068,7 @@
           <t>150</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>27/11/2022</t>
@@ -8057,6 +8116,7 @@
           <t>151</t>
         </is>
       </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
         <is>
           <t>30/11/2022</t>
@@ -13937,477 +13997,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4225</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4232</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4233</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4239</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5.73%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4252</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4636</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6.32%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4639</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.89%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4642</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4648</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4649</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>9</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.31%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4669</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4673</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4676</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>